--- a/biology/Médecine/Hôpital_au_Luxembourg/Hôpital_au_Luxembourg.xlsx
+++ b/biology/Médecine/Hôpital_au_Luxembourg/Hôpital_au_Luxembourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_au_Luxembourg</t>
+          <t>Hôpital_au_Luxembourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein du système de santé luxembourgeois, un hôpital est un lieu destiné à prendre en charge des patients atteints de pathologies et de traumatismes trop complexes pour pouvoir être traités à domicile ou dans le cabinet d'un médecin. Ils peuvent exercer des missions complémentaires, notamment de prévention, de formation et de recherche. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_au_Luxembourg</t>
+          <t>Hôpital_au_Luxembourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Statut des hôpitaux luxembourgeois</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Au Luxembourg, un hôpital public peut être un établissement public ou organisé par un syndicat intercommunal[1].
-La loi luxembourgeoise distingue différents types d'établissements[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Au Luxembourg, un hôpital public peut être un établissement public ou organisé par un syndicat intercommunal.
+La loi luxembourgeoise distingue différents types d'établissements :
 Hôpital : établissement ayant principalement une mission de diagnostic, de surveillance et de traitement relevant de la médecine, de la chirurgie ou de l'obstétrique ainsi que de soins préventifs et palliatifs et disposant de services dans lesquels les patients sont admis :
 Centre hospitalier : hôpital assurant une large offre de prises en charge diagnostiques et thérapeutiques ;
 Établissement hospitalier spécialisé : hôpital qui répond aux besoins spécifiques de certaines prises en charge diagnostiques et thérapeutiques ou à des affections particulières ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_au_Luxembourg</t>
+          <t>Hôpital_au_Luxembourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +562,242 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Luxembourg compte une quinzaine d'établissements hospitaliers[2].
-Hôpitaux
-Centres hospitaliers
-Chaque centre hospitalier compte un ou plusieurs sites.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Luxembourg compte une quinzaine d'établissements hospitaliers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Centres hospitaliers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chaque centre hospitalier compte un ou plusieurs sites.
 Région Centre
 Centre hospitalier de Luxembourg (CHL), hôpital public ;
 Hôpitaux Robert-Schuman (HRS), hôpital privé.
 Région Sud
 Centre hospitalier Émile-Mayrisch (CHEM).
 Région Nord
-Centre hospitalier du Nord (CHdN), hôpital public.
-Établissements hospitaliers spécialisés
-Cardiologie interventionnelle et chirurgie cardiaque : Institut national de chirurgie cardiaque et cardiologie interventionnelle (INCCI) ;
+Centre hospitalier du Nord (CHdN), hôpital public.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Établissements hospitaliers spécialisés</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cardiologie interventionnelle et chirurgie cardiaque : Institut national de chirurgie cardiaque et cardiologie interventionnelle (INCCI) ;
 Radiothérapie : Centre national de radiothérapie François-Baclesse (CFB), situé au sein du centre hospitalier Émile-Mayrisch ;
 Réhabilitation psychiatrique : Centre hospitalier neuro-psychiatrique (CHNP) ;
 Rééducation fonctionnelle : Centre national de rééducation fonctionnelle et de réadaptation (Rehazenter) ;
 Rééducation gériatrique : Hôpital intercommunal de Steinfort (HIS) ;
-Réhabilitation physique et post-oncologique : Centre de réhabilitation du château de Colpach (CRCC).
-Établissement d'accueil pour personnes en fin de vie
-Haus Omega (Soins palliatifs).
-Établissement de cures thermales
-Centre thermal de Mondorf-les-Bains.
-Centre de diagnostic
-Centre de diagnostic dans le domaine de la génétique humaine et de l'anatomopatholgie : Laboratoire national de Santé (LNS).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_au_Luxembourg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Réhabilitation physique et post-oncologique : Centre de réhabilitation du château de Colpach (CRCC).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_au_Luxembourg</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Établissement d'accueil pour personnes en fin de vie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Haus Omega (Soins palliatifs).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Établissement de cures thermales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Centre thermal de Mondorf-les-Bains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hôpital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Centre de diagnostic</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Centre de diagnostic dans le domaine de la génétique humaine et de l'anatomopatholgie : Laboratoire national de Santé (LNS).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hôpital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_au_Luxembourg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Financement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
